--- a/yhfuhad-restful-booker/manual_testing/Auth - CreateToken/tc_boundary_edge_cases.xlsx
+++ b/yhfuhad-restful-booker/manual_testing/Auth - CreateToken/tc_boundary_edge_cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PNT SQA\API Testing\restful-booker\Auth - CreateToken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PNT SQA\Project\api-testing-postman--pnt-b24\yhfuhad-restful-booker\manual_testing\Auth - CreateToken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF610CE-3F9D-4CE6-8205-7351572ABF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EA0234-0080-4D46-A1C4-38A74A0081CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,10 +60,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>1. Send GET to https://reqres.in/api/users?page=1
-2. Check response</t>
-  </si>
-  <si>
     <t>✅ Status Code: 200 OK
 ✅ page field equals 1
 ✅ data array contains users starting with ID 1</t>
@@ -75,9 +71,6 @@
     <t>*****</t>
   </si>
   <si>
-    <t>TC_API_RQR_LU_BEC_001</t>
-  </si>
-  <si>
     <t>API server is running</t>
   </si>
   <si>
@@ -87,25 +80,15 @@
     <t>Verify first page returns data</t>
   </si>
   <si>
-    <t>TC_API_RQR_LU_BEC_002</t>
-  </si>
-  <si>
     <t>Know total pages count</t>
   </si>
   <si>
     <t>Verify last page returns data</t>
   </si>
   <si>
-    <t>1. Send GET to https://reqres.in/api/users?page={total_pages}
-2. Check response</t>
-  </si>
-  <si>
     <t>✅ Status Code: 200 OK
 ✅ page field equals total_pages
 ✅ data array may contain fewer users than per_page</t>
-  </si>
-  <si>
-    <t>TC_API_RQR_LU_BEC_003</t>
   </si>
   <si>
     <t>Page Beyond Total Pages</t>
@@ -114,16 +97,9 @@
     <t>Verify behavior when requesting non-existent page</t>
   </si>
   <si>
-    <t>1. Send GET to https://reqres.in/api/users?page=999
-2. Check response</t>
-  </si>
-  <si>
     <t>✅ Status Code: 200 OK
 ✅ data array is empty []
 ✅ Pagination metadata still present</t>
-  </si>
-  <si>
-    <t>TC_API_RQR_LU_BEC_004</t>
   </si>
   <si>
     <t>Page Zero Request</t>
@@ -132,15 +108,8 @@
     <t>Verify behavior with page=0</t>
   </si>
   <si>
-    <t>1. Send GET to https://reqres.in/api/users?page=0
-2. Check response</t>
-  </si>
-  <si>
     <t>✅ Status Code: 200 OK or 400 Bad Request
 ✅ Either returns page 1 data or appropriate error</t>
-  </si>
-  <si>
-    <t>TC_API_RQR_LU_BEC_005</t>
   </si>
   <si>
     <t>Negative Page Number</t>
@@ -149,7 +118,38 @@
     <t>Verify behavior with negative page</t>
   </si>
   <si>
-    <t>1. Send GET to https://reqres.in/api/users?page=-1
+    <t>TC_API_BKR_LU_BEC_001</t>
+  </si>
+  <si>
+    <t>TC_API_BKR_LU_BEC_002</t>
+  </si>
+  <si>
+    <t>TC_API_BKR_LU_BEC_003</t>
+  </si>
+  <si>
+    <t>TC_API_BKR_LU_BEC_004</t>
+  </si>
+  <si>
+    <t>TC_API_BKR_LU_BEC_005</t>
+  </si>
+  <si>
+    <t>1. Send POST to https://restful-booker.herokuapp.com/auth?page=1
+2. Check response</t>
+  </si>
+  <si>
+    <t>1. Send POST to https://restful-booker.herokuapp.com/auth?page={total_pages}
+2. Check response</t>
+  </si>
+  <si>
+    <t>1. Send POST to https://restful-booker.herokuapp.com/auth?page=999
+2. Check response</t>
+  </si>
+  <si>
+    <t>1. Send POST to https://restful-booker.herokuapp.com/auth?page=-1
+2. Check response</t>
+  </si>
+  <si>
+    <t>1. Send POST to https://restful-booker.herokuapp.com/auth?page=0
 2. Check response</t>
   </si>
 </sst>
@@ -215,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -225,78 +225,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -304,61 +242,282 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="43">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -618,64 +777,64 @@
   </dxfs>
   <tableStyles count="14">
     <tableStyle name="tc_template-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="31"/>
-      <tableStyleElement type="firstRowStripe" dxfId="30"/>
-      <tableStyleElement type="secondRowStripe" dxfId="29"/>
+      <tableStyleElement type="headerRow" dxfId="42"/>
+      <tableStyleElement type="firstRowStripe" dxfId="41"/>
+      <tableStyleElement type="secondRowStripe" dxfId="40"/>
     </tableStyle>
     <tableStyle name="tc_functional-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="28"/>
+      <tableStyleElement type="headerRow" dxfId="39"/>
+      <tableStyleElement type="firstRowStripe" dxfId="38"/>
+      <tableStyleElement type="secondRowStripe" dxfId="37"/>
+    </tableStyle>
+    <tableStyle name="tc_functional-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
+      <tableStyleElement type="firstRowStripe" dxfId="36"/>
+      <tableStyleElement type="secondRowStripe" dxfId="35"/>
+    </tableStyle>
+    <tableStyle name="tc_boundary_edge_cases-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
+      <tableStyleElement type="headerRow" dxfId="34"/>
+      <tableStyleElement type="firstRowStripe" dxfId="33"/>
+      <tableStyleElement type="secondRowStripe" dxfId="32"/>
+    </tableStyle>
+    <tableStyle name="tc_boundary_edge_cases-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
+      <tableStyleElement type="firstRowStripe" dxfId="31"/>
+      <tableStyleElement type="secondRowStripe" dxfId="30"/>
+    </tableStyle>
+    <tableStyle name="tc_boundary_edge_cases-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
+      <tableStyleElement type="firstRowStripe" dxfId="29"/>
+      <tableStyleElement type="secondRowStripe" dxfId="28"/>
+    </tableStyle>
+    <tableStyle name="tc_boundary_edge_cases-style 4" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF06000000}">
       <tableStyleElement type="firstRowStripe" dxfId="27"/>
       <tableStyleElement type="secondRowStripe" dxfId="26"/>
     </tableStyle>
-    <tableStyle name="tc_functional-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
+    <tableStyle name="tc_boundary_edge_cases-style 5" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF07000000}">
       <tableStyleElement type="firstRowStripe" dxfId="25"/>
       <tableStyleElement type="secondRowStripe" dxfId="24"/>
     </tableStyle>
-    <tableStyle name="tc_boundary_edge_cases-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
+    <tableStyle name="tc_input_validation_tests-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF08000000}">
       <tableStyleElement type="headerRow" dxfId="23"/>
       <tableStyleElement type="firstRowStripe" dxfId="22"/>
       <tableStyleElement type="secondRowStripe" dxfId="21"/>
     </tableStyle>
-    <tableStyle name="tc_boundary_edge_cases-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
+    <tableStyle name="tc_input_validation_tests-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF09000000}">
       <tableStyleElement type="firstRowStripe" dxfId="20"/>
       <tableStyleElement type="secondRowStripe" dxfId="19"/>
     </tableStyle>
-    <tableStyle name="tc_boundary_edge_cases-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
+    <tableStyle name="tc_input_validation_tests-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0A000000}">
       <tableStyleElement type="firstRowStripe" dxfId="18"/>
       <tableStyleElement type="secondRowStripe" dxfId="17"/>
     </tableStyle>
-    <tableStyle name="tc_boundary_edge_cases-style 4" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF06000000}">
+    <tableStyle name="tc_input_validation_tests-style 4" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0B000000}">
       <tableStyleElement type="firstRowStripe" dxfId="16"/>
       <tableStyleElement type="secondRowStripe" dxfId="15"/>
     </tableStyle>
-    <tableStyle name="tc_boundary_edge_cases-style 5" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF07000000}">
+    <tableStyle name="tc_input_validation_tests-style 5" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0C000000}">
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
       <tableStyleElement type="secondRowStripe" dxfId="13"/>
     </tableStyle>
-    <tableStyle name="tc_input_validation_tests-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF08000000}">
-      <tableStyleElement type="headerRow" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="secondRowStripe" dxfId="10"/>
-    </tableStyle>
-    <tableStyle name="tc_input_validation_tests-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF09000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="9"/>
-      <tableStyleElement type="secondRowStripe" dxfId="8"/>
-    </tableStyle>
-    <tableStyle name="tc_input_validation_tests-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0A000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="secondRowStripe" dxfId="6"/>
-    </tableStyle>
-    <tableStyle name="tc_input_validation_tests-style 4" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0B000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="5"/>
-      <tableStyleElement type="secondRowStripe" dxfId="4"/>
-    </tableStyle>
-    <tableStyle name="tc_input_validation_tests-style 5" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0C000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="3"/>
-      <tableStyleElement type="secondRowStripe" dxfId="2"/>
-    </tableStyle>
     <tableStyle name="tc_input_validation_tests-style 6" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0D000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+      <tableStyleElement type="firstRowStripe" dxfId="12"/>
+      <tableStyleElement type="secondRowStripe" dxfId="11"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -690,17 +849,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="A3:I4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="A3:I4" headerRowDxfId="10" totalsRowDxfId="9">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Test Case ID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Prerequisites"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Sub Types"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="title/Description"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="steps"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Expected result:"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Actual result:"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Pass / Fail"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Comments"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Test Case ID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Prerequisites" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Sub Types" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="title/Description" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="steps" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Expected result:" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Actual result:" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Pass / Fail" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="tc_boundary_edge_cases-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -977,35 +1136,36 @@
   </sheetPr>
   <dimension ref="A1:AB998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="3" width="14.90625" customWidth="1"/>
-    <col min="4" max="4" width="35" customWidth="1"/>
-    <col min="5" max="5" width="38.7265625" customWidth="1"/>
-    <col min="6" max="7" width="35" customWidth="1"/>
-    <col min="8" max="8" width="10.6328125" customWidth="1"/>
-    <col min="9" max="9" width="31.08984375" customWidth="1"/>
-    <col min="10" max="28" width="11" customWidth="1"/>
+    <col min="1" max="1" width="26" style="2" customWidth="1"/>
+    <col min="2" max="3" width="14.90625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="35" style="2" customWidth="1"/>
+    <col min="5" max="5" width="38.7265625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="35" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="31.08984375" style="2" customWidth="1"/>
+    <col min="10" max="28" width="11" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="12.6328125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -1027,15 +1187,15 @@
       <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1057,31 +1217,31 @@
       <c r="AB2" s="1"/>
     </row>
     <row r="3" spans="1:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="9" t="s">
         <v>9</v>
       </c>
       <c r="J3" s="1"/>
@@ -1105,255 +1265,255 @@
       <c r="AB3" s="1"/>
     </row>
     <row r="4" spans="1:28" ht="71.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="D4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="E4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+    </row>
+    <row r="5" spans="1:28" ht="71.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="C5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>10</v>
+      <c r="E5" s="12" t="s">
+        <v>33</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="I5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+    </row>
+    <row r="6" spans="1:28" ht="71.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+    </row>
+    <row r="7" spans="1:28" ht="71.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-    </row>
-    <row r="5" spans="1:28" ht="71.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
+      <c r="C7" s="11" t="s">
+        <v>22</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>19</v>
+      <c r="D7" s="12" t="s">
+        <v>23</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>16</v>
+      <c r="E7" s="12" t="s">
+        <v>36</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>20</v>
+      <c r="F7" s="12" t="s">
+        <v>24</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="G7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
+      <c r="H7" s="13" t="s">
+        <v>11</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="I7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+    </row>
+    <row r="8" spans="1:28" ht="71.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-    </row>
-    <row r="6" spans="1:28" ht="71.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>23</v>
+      <c r="C8" s="11" t="s">
+        <v>25</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>15</v>
+      <c r="D8" s="12" t="s">
+        <v>26</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="E8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>25</v>
+      <c r="G8" s="12" t="s">
+        <v>21</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
+      <c r="H8" s="13" t="s">
+        <v>11</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="I8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-    </row>
-    <row r="7" spans="1:28" ht="71.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-    </row>
-    <row r="8" spans="1:28" ht="71.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="1:28" ht="153" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="11"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="4"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1375,15 +1535,15 @@
       <c r="AB9" s="1"/>
     </row>
     <row r="10" spans="1:28" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="11"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="4"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1405,15 +1565,15 @@
       <c r="AB10" s="1"/>
     </row>
     <row r="11" spans="1:28" ht="126" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="11"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="4"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1435,15 +1595,15 @@
       <c r="AB11" s="1"/>
     </row>
     <row r="12" spans="1:28" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="11"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="4"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1465,15 +1625,15 @@
       <c r="AB12" s="1"/>
     </row>
     <row r="13" spans="1:28" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="11"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="4"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1495,15 +1655,15 @@
       <c r="AB13" s="1"/>
     </row>
     <row r="14" spans="1:28" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="11"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="4"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1525,15 +1685,15 @@
       <c r="AB14" s="1"/>
     </row>
     <row r="15" spans="1:28" ht="141.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="11"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="4"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1555,15 +1715,15 @@
       <c r="AB15" s="1"/>
     </row>
     <row r="16" spans="1:28" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="11"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="4"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1585,15 +1745,15 @@
       <c r="AB16" s="1"/>
     </row>
     <row r="17" spans="1:28" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="11"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="4"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1615,15 +1775,15 @@
       <c r="AB17" s="1"/>
     </row>
     <row r="18" spans="1:28" ht="132" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="11"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="4"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1645,15 +1805,15 @@
       <c r="AB18" s="1"/>
     </row>
     <row r="19" spans="1:28" ht="126" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="11"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="4"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1675,15 +1835,15 @@
       <c r="AB19" s="1"/>
     </row>
     <row r="20" spans="1:28" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="11"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="4"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1705,15 +1865,15 @@
       <c r="AB20" s="1"/>
     </row>
     <row r="21" spans="1:28" ht="126" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="11"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="4"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1735,15 +1895,15 @@
       <c r="AB21" s="1"/>
     </row>
     <row r="22" spans="1:28" ht="126.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="11"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="4"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1765,15 +1925,15 @@
       <c r="AB22" s="1"/>
     </row>
     <row r="23" spans="1:28" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="11"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="4"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1795,15 +1955,15 @@
       <c r="AB23" s="1"/>
     </row>
     <row r="24" spans="1:28" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="11"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="4"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1825,15 +1985,15 @@
       <c r="AB24" s="1"/>
     </row>
     <row r="25" spans="1:28" ht="117" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="11"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="4"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1855,15 +2015,15 @@
       <c r="AB25" s="1"/>
     </row>
     <row r="26" spans="1:28" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="11"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="4"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1885,15 +2045,15 @@
       <c r="AB26" s="1"/>
     </row>
     <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="11"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="4"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1915,15 +2075,15 @@
       <c r="AB27" s="1"/>
     </row>
     <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="11"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="4"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1945,15 +2105,15 @@
       <c r="AB28" s="1"/>
     </row>
     <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="11"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="4"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1975,15 +2135,15 @@
       <c r="AB29" s="1"/>
     </row>
     <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="11"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="4"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2005,15 +2165,15 @@
       <c r="AB30" s="1"/>
     </row>
     <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="11"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="4"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2035,15 +2195,15 @@
       <c r="AB31" s="1"/>
     </row>
     <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="11"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="4"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2065,15 +2225,15 @@
       <c r="AB32" s="1"/>
     </row>
     <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="11"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="4"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2095,15 +2255,15 @@
       <c r="AB33" s="1"/>
     </row>
     <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="11"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="4"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2125,15 +2285,15 @@
       <c r="AB34" s="1"/>
     </row>
     <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="11"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="4"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2155,15 +2315,15 @@
       <c r="AB35" s="1"/>
     </row>
     <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="11"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="4"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2185,15 +2345,15 @@
       <c r="AB36" s="1"/>
     </row>
     <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="11"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="4"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2215,15 +2375,15 @@
       <c r="AB37" s="1"/>
     </row>
     <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="11"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="4"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2245,15 +2405,15 @@
       <c r="AB38" s="1"/>
     </row>
     <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="11"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="4"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2275,15 +2435,15 @@
       <c r="AB39" s="1"/>
     </row>
     <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="11"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="4"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2305,15 +2465,15 @@
       <c r="AB40" s="1"/>
     </row>
     <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="11"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="4"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2335,15 +2495,15 @@
       <c r="AB41" s="1"/>
     </row>
     <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="11"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="4"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2365,15 +2525,15 @@
       <c r="AB42" s="1"/>
     </row>
     <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="11"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="4"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2395,15 +2555,15 @@
       <c r="AB43" s="1"/>
     </row>
     <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="11"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="4"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2425,15 +2585,15 @@
       <c r="AB44" s="1"/>
     </row>
     <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="11"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="4"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2455,15 +2615,15 @@
       <c r="AB45" s="1"/>
     </row>
     <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="11"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="4"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2485,15 +2645,15 @@
       <c r="AB46" s="1"/>
     </row>
     <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="11"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="4"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2515,15 +2675,15 @@
       <c r="AB47" s="1"/>
     </row>
     <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="11"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="4"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2545,15 +2705,15 @@
       <c r="AB48" s="1"/>
     </row>
     <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="11"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="4"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2575,15 +2735,15 @@
       <c r="AB49" s="1"/>
     </row>
     <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="11"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="4"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -2605,15 +2765,15 @@
       <c r="AB50" s="1"/>
     </row>
     <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="11"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="4"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2635,15 +2795,15 @@
       <c r="AB51" s="1"/>
     </row>
     <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="11"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="4"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -2665,15 +2825,15 @@
       <c r="AB52" s="1"/>
     </row>
     <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="11"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="4"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -2695,15 +2855,15 @@
       <c r="AB53" s="1"/>
     </row>
     <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="11"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="4"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -2725,15 +2885,15 @@
       <c r="AB54" s="1"/>
     </row>
     <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="11"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="4"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -2755,15 +2915,15 @@
       <c r="AB55" s="1"/>
     </row>
     <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="11"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="4"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -2785,15 +2945,15 @@
       <c r="AB56" s="1"/>
     </row>
     <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="11"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="4"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
@@ -2815,15 +2975,15 @@
       <c r="AB57" s="1"/>
     </row>
     <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="11"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="4"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -2845,15 +3005,15 @@
       <c r="AB58" s="1"/>
     </row>
     <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="11"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="4"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -2875,15 +3035,15 @@
       <c r="AB59" s="1"/>
     </row>
     <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="11"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="4"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -2905,15 +3065,15 @@
       <c r="AB60" s="1"/>
     </row>
     <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="11"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="4"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -2935,15 +3095,15 @@
       <c r="AB61" s="1"/>
     </row>
     <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="11"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="4"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -2965,15 +3125,15 @@
       <c r="AB62" s="1"/>
     </row>
     <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="11"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="4"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
@@ -2995,15 +3155,15 @@
       <c r="AB63" s="1"/>
     </row>
     <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="11"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="4"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -3025,15 +3185,15 @@
       <c r="AB64" s="1"/>
     </row>
     <row r="65" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="11"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="4"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
@@ -3055,15 +3215,15 @@
       <c r="AB65" s="1"/>
     </row>
     <row r="66" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="11"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="4"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
@@ -3085,15 +3245,15 @@
       <c r="AB66" s="1"/>
     </row>
     <row r="67" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="11"/>
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="4"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
@@ -3115,15 +3275,15 @@
       <c r="AB67" s="1"/>
     </row>
     <row r="68" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="11"/>
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="4"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -3145,15 +3305,15 @@
       <c r="AB68" s="1"/>
     </row>
     <row r="69" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="11"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="4"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
@@ -3175,15 +3335,15 @@
       <c r="AB69" s="1"/>
     </row>
     <row r="70" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="11"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="4"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -3205,15 +3365,15 @@
       <c r="AB70" s="1"/>
     </row>
     <row r="71" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="11"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="4"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -3235,15 +3395,15 @@
       <c r="AB71" s="1"/>
     </row>
     <row r="72" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="11"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="4"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -3265,15 +3425,15 @@
       <c r="AB72" s="1"/>
     </row>
     <row r="73" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="11"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="4"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -3295,15 +3455,15 @@
       <c r="AB73" s="1"/>
     </row>
     <row r="74" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="11"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="4"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -3325,15 +3485,15 @@
       <c r="AB74" s="1"/>
     </row>
     <row r="75" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="11"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="4"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -3355,15 +3515,15 @@
       <c r="AB75" s="1"/>
     </row>
     <row r="76" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="11"/>
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="4"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
@@ -3385,15 +3545,15 @@
       <c r="AB76" s="1"/>
     </row>
     <row r="77" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="11"/>
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="4"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -3415,15 +3575,15 @@
       <c r="AB77" s="1"/>
     </row>
     <row r="78" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="11"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="4"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
@@ -3445,15 +3605,15 @@
       <c r="AB78" s="1"/>
     </row>
     <row r="79" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="11"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="4"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
@@ -3475,15 +3635,15 @@
       <c r="AB79" s="1"/>
     </row>
     <row r="80" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="11"/>
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="4"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
@@ -3505,15 +3665,15 @@
       <c r="AB80" s="1"/>
     </row>
     <row r="81" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="11"/>
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="4"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
@@ -3535,15 +3695,15 @@
       <c r="AB81" s="1"/>
     </row>
     <row r="82" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="11"/>
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="4"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
@@ -3565,15 +3725,15 @@
       <c r="AB82" s="1"/>
     </row>
     <row r="83" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="11"/>
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="4"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
@@ -3595,15 +3755,15 @@
       <c r="AB83" s="1"/>
     </row>
     <row r="84" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="11"/>
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="4"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
@@ -3625,15 +3785,15 @@
       <c r="AB84" s="1"/>
     </row>
     <row r="85" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="11"/>
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="4"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
@@ -3655,15 +3815,15 @@
       <c r="AB85" s="1"/>
     </row>
     <row r="86" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="11"/>
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="4"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
@@ -3685,15 +3845,15 @@
       <c r="AB86" s="1"/>
     </row>
     <row r="87" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="11"/>
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="4"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
@@ -3715,15 +3875,15 @@
       <c r="AB87" s="1"/>
     </row>
     <row r="88" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="11"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="11"/>
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="4"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
@@ -3745,15 +3905,15 @@
       <c r="AB88" s="1"/>
     </row>
     <row r="89" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="11"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="11"/>
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="4"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
@@ -3775,15 +3935,15 @@
       <c r="AB89" s="1"/>
     </row>
     <row r="90" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="11"/>
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="4"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
@@ -3805,15 +3965,15 @@
       <c r="AB90" s="1"/>
     </row>
     <row r="91" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="11"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="11"/>
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="4"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
@@ -3835,15 +3995,15 @@
       <c r="AB91" s="1"/>
     </row>
     <row r="92" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="11"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="11"/>
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="4"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
@@ -3865,15 +4025,15 @@
       <c r="AB92" s="1"/>
     </row>
     <row r="93" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="11"/>
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="4"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
@@ -3895,15 +4055,15 @@
       <c r="AB93" s="1"/>
     </row>
     <row r="94" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="11"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="11"/>
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="4"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
@@ -3925,15 +4085,15 @@
       <c r="AB94" s="1"/>
     </row>
     <row r="95" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="11"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="11"/>
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="4"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
@@ -3955,15 +4115,15 @@
       <c r="AB95" s="1"/>
     </row>
     <row r="96" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="12"/>
-      <c r="I96" s="11"/>
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="4"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
@@ -3985,15 +4145,15 @@
       <c r="AB96" s="1"/>
     </row>
     <row r="97" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="11"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="11"/>
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="4"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
@@ -4015,15 +4175,15 @@
       <c r="AB97" s="1"/>
     </row>
     <row r="98" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="11"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="11"/>
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="4"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
@@ -4045,15 +4205,15 @@
       <c r="AB98" s="1"/>
     </row>
     <row r="99" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="11"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="11"/>
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="4"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
@@ -4075,15 +4235,15 @@
       <c r="AB99" s="1"/>
     </row>
     <row r="100" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="11"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="12"/>
-      <c r="I100" s="11"/>
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="4"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
@@ -4105,15 +4265,15 @@
       <c r="AB100" s="1"/>
     </row>
     <row r="101" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="11"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="12"/>
-      <c r="I101" s="11"/>
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="4"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
@@ -4135,15 +4295,15 @@
       <c r="AB101" s="1"/>
     </row>
     <row r="102" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="11"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="11"/>
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="4"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
@@ -4165,15 +4325,15 @@
       <c r="AB102" s="1"/>
     </row>
     <row r="103" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="11"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="12"/>
-      <c r="I103" s="11"/>
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="4"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
@@ -4195,15 +4355,15 @@
       <c r="AB103" s="1"/>
     </row>
     <row r="104" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="11"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="12"/>
-      <c r="I104" s="11"/>
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="4"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
@@ -4225,15 +4385,15 @@
       <c r="AB104" s="1"/>
     </row>
     <row r="105" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="11"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="12"/>
-      <c r="I105" s="11"/>
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="4"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
@@ -4255,15 +4415,15 @@
       <c r="AB105" s="1"/>
     </row>
     <row r="106" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="11"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="12"/>
-      <c r="I106" s="11"/>
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="4"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
@@ -4285,15 +4445,15 @@
       <c r="AB106" s="1"/>
     </row>
     <row r="107" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="11"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="12"/>
-      <c r="I107" s="11"/>
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="4"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
@@ -4315,15 +4475,15 @@
       <c r="AB107" s="1"/>
     </row>
     <row r="108" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="11"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11"/>
-      <c r="H108" s="12"/>
-      <c r="I108" s="11"/>
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="4"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
@@ -4345,15 +4505,15 @@
       <c r="AB108" s="1"/>
     </row>
     <row r="109" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="11"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="12"/>
-      <c r="I109" s="11"/>
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="4"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
@@ -4375,15 +4535,15 @@
       <c r="AB109" s="1"/>
     </row>
     <row r="110" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="11"/>
-      <c r="H110" s="12"/>
-      <c r="I110" s="11"/>
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="4"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
@@ -4405,15 +4565,15 @@
       <c r="AB110" s="1"/>
     </row>
     <row r="111" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="11"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
-      <c r="H111" s="12"/>
-      <c r="I111" s="11"/>
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="4"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
@@ -4435,15 +4595,15 @@
       <c r="AB111" s="1"/>
     </row>
     <row r="112" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="11"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="11"/>
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="4"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
@@ -4465,15 +4625,15 @@
       <c r="AB112" s="1"/>
     </row>
     <row r="113" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="11"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="11"/>
-      <c r="G113" s="11"/>
-      <c r="H113" s="12"/>
-      <c r="I113" s="11"/>
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="4"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
@@ -4495,15 +4655,15 @@
       <c r="AB113" s="1"/>
     </row>
     <row r="114" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="11"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="11"/>
-      <c r="G114" s="11"/>
-      <c r="H114" s="12"/>
-      <c r="I114" s="11"/>
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="4"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
@@ -4525,15 +4685,15 @@
       <c r="AB114" s="1"/>
     </row>
     <row r="115" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="11"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="11"/>
-      <c r="G115" s="11"/>
-      <c r="H115" s="12"/>
-      <c r="I115" s="11"/>
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="4"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
@@ -4555,15 +4715,15 @@
       <c r="AB115" s="1"/>
     </row>
     <row r="116" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="11"/>
-      <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="11"/>
-      <c r="G116" s="11"/>
-      <c r="H116" s="12"/>
-      <c r="I116" s="11"/>
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="4"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
@@ -4585,15 +4745,15 @@
       <c r="AB116" s="1"/>
     </row>
     <row r="117" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="11"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="11"/>
-      <c r="D117" s="11"/>
-      <c r="E117" s="11"/>
-      <c r="F117" s="11"/>
-      <c r="G117" s="11"/>
-      <c r="H117" s="12"/>
-      <c r="I117" s="11"/>
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="4"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
@@ -4615,15 +4775,15 @@
       <c r="AB117" s="1"/>
     </row>
     <row r="118" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="11"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
-      <c r="H118" s="12"/>
-      <c r="I118" s="11"/>
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="4"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
@@ -4645,15 +4805,15 @@
       <c r="AB118" s="1"/>
     </row>
     <row r="119" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="11"/>
-      <c r="B119" s="11"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="11"/>
-      <c r="G119" s="11"/>
-      <c r="H119" s="12"/>
-      <c r="I119" s="11"/>
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="4"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
@@ -4675,15 +4835,15 @@
       <c r="AB119" s="1"/>
     </row>
     <row r="120" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="11"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="11"/>
-      <c r="G120" s="11"/>
-      <c r="H120" s="12"/>
-      <c r="I120" s="11"/>
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="4"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
@@ -4705,15 +4865,15 @@
       <c r="AB120" s="1"/>
     </row>
     <row r="121" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="11"/>
-      <c r="B121" s="11"/>
-      <c r="C121" s="11"/>
-      <c r="D121" s="11"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="11"/>
-      <c r="G121" s="11"/>
-      <c r="H121" s="12"/>
-      <c r="I121" s="11"/>
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="4"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
@@ -4735,15 +4895,15 @@
       <c r="AB121" s="1"/>
     </row>
     <row r="122" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="11"/>
-      <c r="B122" s="11"/>
-      <c r="C122" s="11"/>
-      <c r="D122" s="11"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="11"/>
-      <c r="G122" s="11"/>
-      <c r="H122" s="12"/>
-      <c r="I122" s="11"/>
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="4"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
@@ -4765,15 +4925,15 @@
       <c r="AB122" s="1"/>
     </row>
     <row r="123" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="11"/>
-      <c r="B123" s="11"/>
-      <c r="C123" s="11"/>
-      <c r="D123" s="11"/>
-      <c r="E123" s="11"/>
-      <c r="F123" s="11"/>
-      <c r="G123" s="11"/>
-      <c r="H123" s="12"/>
-      <c r="I123" s="11"/>
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="4"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
@@ -4795,15 +4955,15 @@
       <c r="AB123" s="1"/>
     </row>
     <row r="124" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="11"/>
-      <c r="B124" s="11"/>
-      <c r="C124" s="11"/>
-      <c r="D124" s="11"/>
-      <c r="E124" s="11"/>
-      <c r="F124" s="11"/>
-      <c r="G124" s="11"/>
-      <c r="H124" s="12"/>
-      <c r="I124" s="11"/>
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="4"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
@@ -4825,15 +4985,15 @@
       <c r="AB124" s="1"/>
     </row>
     <row r="125" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="11"/>
-      <c r="B125" s="11"/>
-      <c r="C125" s="11"/>
-      <c r="D125" s="11"/>
-      <c r="E125" s="11"/>
-      <c r="F125" s="11"/>
-      <c r="G125" s="11"/>
-      <c r="H125" s="12"/>
-      <c r="I125" s="11"/>
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="4"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
@@ -4855,15 +5015,15 @@
       <c r="AB125" s="1"/>
     </row>
     <row r="126" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="11"/>
-      <c r="B126" s="11"/>
-      <c r="C126" s="11"/>
-      <c r="D126" s="11"/>
-      <c r="E126" s="11"/>
-      <c r="F126" s="11"/>
-      <c r="G126" s="11"/>
-      <c r="H126" s="12"/>
-      <c r="I126" s="11"/>
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="4"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
@@ -4885,15 +5045,15 @@
       <c r="AB126" s="1"/>
     </row>
     <row r="127" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="11"/>
-      <c r="B127" s="11"/>
-      <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="12"/>
-      <c r="I127" s="11"/>
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="4"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
@@ -4915,15 +5075,15 @@
       <c r="AB127" s="1"/>
     </row>
     <row r="128" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="11"/>
-      <c r="B128" s="11"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
-      <c r="E128" s="11"/>
-      <c r="F128" s="11"/>
-      <c r="G128" s="11"/>
-      <c r="H128" s="12"/>
-      <c r="I128" s="11"/>
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="4"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
@@ -4945,15 +5105,15 @@
       <c r="AB128" s="1"/>
     </row>
     <row r="129" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="11"/>
-      <c r="B129" s="11"/>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
-      <c r="E129" s="11"/>
-      <c r="F129" s="11"/>
-      <c r="G129" s="11"/>
-      <c r="H129" s="12"/>
-      <c r="I129" s="11"/>
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="4"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
@@ -4975,15 +5135,15 @@
       <c r="AB129" s="1"/>
     </row>
     <row r="130" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="11"/>
-      <c r="B130" s="11"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="11"/>
-      <c r="G130" s="11"/>
-      <c r="H130" s="12"/>
-      <c r="I130" s="11"/>
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="4"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
@@ -5005,15 +5165,15 @@
       <c r="AB130" s="1"/>
     </row>
     <row r="131" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="11"/>
-      <c r="B131" s="11"/>
-      <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
-      <c r="E131" s="11"/>
-      <c r="F131" s="11"/>
-      <c r="G131" s="11"/>
-      <c r="H131" s="12"/>
-      <c r="I131" s="11"/>
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="4"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
@@ -5035,15 +5195,15 @@
       <c r="AB131" s="1"/>
     </row>
     <row r="132" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="11"/>
-      <c r="B132" s="11"/>
-      <c r="C132" s="11"/>
-      <c r="D132" s="11"/>
-      <c r="E132" s="11"/>
-      <c r="F132" s="11"/>
-      <c r="G132" s="11"/>
-      <c r="H132" s="12"/>
-      <c r="I132" s="11"/>
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="4"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
@@ -5065,15 +5225,15 @@
       <c r="AB132" s="1"/>
     </row>
     <row r="133" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="11"/>
-      <c r="B133" s="11"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
-      <c r="E133" s="11"/>
-      <c r="F133" s="11"/>
-      <c r="G133" s="11"/>
-      <c r="H133" s="12"/>
-      <c r="I133" s="11"/>
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="4"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
@@ -5095,15 +5255,15 @@
       <c r="AB133" s="1"/>
     </row>
     <row r="134" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="11"/>
-      <c r="B134" s="11"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
-      <c r="E134" s="11"/>
-      <c r="F134" s="11"/>
-      <c r="G134" s="11"/>
-      <c r="H134" s="12"/>
-      <c r="I134" s="11"/>
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="4"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
@@ -5125,15 +5285,15 @@
       <c r="AB134" s="1"/>
     </row>
     <row r="135" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="11"/>
-      <c r="B135" s="11"/>
-      <c r="C135" s="11"/>
-      <c r="D135" s="11"/>
-      <c r="E135" s="11"/>
-      <c r="F135" s="11"/>
-      <c r="G135" s="11"/>
-      <c r="H135" s="12"/>
-      <c r="I135" s="11"/>
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="4"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
@@ -5155,15 +5315,15 @@
       <c r="AB135" s="1"/>
     </row>
     <row r="136" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="11"/>
-      <c r="B136" s="11"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="11"/>
-      <c r="G136" s="11"/>
-      <c r="H136" s="12"/>
-      <c r="I136" s="11"/>
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="4"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
@@ -5185,15 +5345,15 @@
       <c r="AB136" s="1"/>
     </row>
     <row r="137" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="11"/>
-      <c r="B137" s="11"/>
-      <c r="C137" s="11"/>
-      <c r="D137" s="11"/>
-      <c r="E137" s="11"/>
-      <c r="F137" s="11"/>
-      <c r="G137" s="11"/>
-      <c r="H137" s="12"/>
-      <c r="I137" s="11"/>
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="4"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
@@ -5215,15 +5375,15 @@
       <c r="AB137" s="1"/>
     </row>
     <row r="138" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="11"/>
-      <c r="B138" s="11"/>
-      <c r="C138" s="11"/>
-      <c r="D138" s="11"/>
-      <c r="E138" s="11"/>
-      <c r="F138" s="11"/>
-      <c r="G138" s="11"/>
-      <c r="H138" s="12"/>
-      <c r="I138" s="11"/>
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="4"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
@@ -5245,15 +5405,15 @@
       <c r="AB138" s="1"/>
     </row>
     <row r="139" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="11"/>
-      <c r="B139" s="11"/>
-      <c r="C139" s="11"/>
-      <c r="D139" s="11"/>
-      <c r="E139" s="11"/>
-      <c r="F139" s="11"/>
-      <c r="G139" s="11"/>
-      <c r="H139" s="12"/>
-      <c r="I139" s="11"/>
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="4"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
@@ -5275,15 +5435,15 @@
       <c r="AB139" s="1"/>
     </row>
     <row r="140" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="11"/>
-      <c r="B140" s="11"/>
-      <c r="C140" s="11"/>
-      <c r="D140" s="11"/>
-      <c r="E140" s="11"/>
-      <c r="F140" s="11"/>
-      <c r="G140" s="11"/>
-      <c r="H140" s="12"/>
-      <c r="I140" s="11"/>
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="4"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
@@ -5305,15 +5465,15 @@
       <c r="AB140" s="1"/>
     </row>
     <row r="141" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="11"/>
-      <c r="B141" s="11"/>
-      <c r="C141" s="11"/>
-      <c r="D141" s="11"/>
-      <c r="E141" s="11"/>
-      <c r="F141" s="11"/>
-      <c r="G141" s="11"/>
-      <c r="H141" s="12"/>
-      <c r="I141" s="11"/>
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="4"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
@@ -5335,15 +5495,15 @@
       <c r="AB141" s="1"/>
     </row>
     <row r="142" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="11"/>
-      <c r="B142" s="11"/>
-      <c r="C142" s="11"/>
-      <c r="D142" s="11"/>
-      <c r="E142" s="11"/>
-      <c r="F142" s="11"/>
-      <c r="G142" s="11"/>
-      <c r="H142" s="12"/>
-      <c r="I142" s="11"/>
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="4"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
@@ -5365,15 +5525,15 @@
       <c r="AB142" s="1"/>
     </row>
     <row r="143" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="11"/>
-      <c r="B143" s="11"/>
-      <c r="C143" s="11"/>
-      <c r="D143" s="11"/>
-      <c r="E143" s="11"/>
-      <c r="F143" s="11"/>
-      <c r="G143" s="11"/>
-      <c r="H143" s="12"/>
-      <c r="I143" s="11"/>
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="4"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
@@ -5395,15 +5555,15 @@
       <c r="AB143" s="1"/>
     </row>
     <row r="144" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="11"/>
-      <c r="B144" s="11"/>
-      <c r="C144" s="11"/>
-      <c r="D144" s="11"/>
-      <c r="E144" s="11"/>
-      <c r="F144" s="11"/>
-      <c r="G144" s="11"/>
-      <c r="H144" s="12"/>
-      <c r="I144" s="11"/>
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="4"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
@@ -5425,15 +5585,15 @@
       <c r="AB144" s="1"/>
     </row>
     <row r="145" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="11"/>
-      <c r="B145" s="11"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
-      <c r="E145" s="11"/>
-      <c r="F145" s="11"/>
-      <c r="G145" s="11"/>
-      <c r="H145" s="12"/>
-      <c r="I145" s="11"/>
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="4"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
@@ -5455,15 +5615,15 @@
       <c r="AB145" s="1"/>
     </row>
     <row r="146" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="11"/>
-      <c r="B146" s="11"/>
-      <c r="C146" s="11"/>
-      <c r="D146" s="11"/>
-      <c r="E146" s="11"/>
-      <c r="F146" s="11"/>
-      <c r="G146" s="11"/>
-      <c r="H146" s="12"/>
-      <c r="I146" s="11"/>
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="4"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
@@ -5485,15 +5645,15 @@
       <c r="AB146" s="1"/>
     </row>
     <row r="147" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="11"/>
-      <c r="B147" s="11"/>
-      <c r="C147" s="11"/>
-      <c r="D147" s="11"/>
-      <c r="E147" s="11"/>
-      <c r="F147" s="11"/>
-      <c r="G147" s="11"/>
-      <c r="H147" s="12"/>
-      <c r="I147" s="11"/>
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="4"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
@@ -5515,15 +5675,15 @@
       <c r="AB147" s="1"/>
     </row>
     <row r="148" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="11"/>
-      <c r="B148" s="11"/>
-      <c r="C148" s="11"/>
-      <c r="D148" s="11"/>
-      <c r="E148" s="11"/>
-      <c r="F148" s="11"/>
-      <c r="G148" s="11"/>
-      <c r="H148" s="12"/>
-      <c r="I148" s="11"/>
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="4"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
@@ -5545,15 +5705,15 @@
       <c r="AB148" s="1"/>
     </row>
     <row r="149" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="11"/>
-      <c r="B149" s="11"/>
-      <c r="C149" s="11"/>
-      <c r="D149" s="11"/>
-      <c r="E149" s="11"/>
-      <c r="F149" s="11"/>
-      <c r="G149" s="11"/>
-      <c r="H149" s="12"/>
-      <c r="I149" s="11"/>
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="4"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
@@ -5575,15 +5735,15 @@
       <c r="AB149" s="1"/>
     </row>
     <row r="150" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="11"/>
-      <c r="B150" s="11"/>
-      <c r="C150" s="11"/>
-      <c r="D150" s="11"/>
-      <c r="E150" s="11"/>
-      <c r="F150" s="11"/>
-      <c r="G150" s="11"/>
-      <c r="H150" s="12"/>
-      <c r="I150" s="11"/>
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="4"/>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
@@ -5605,15 +5765,15 @@
       <c r="AB150" s="1"/>
     </row>
     <row r="151" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="11"/>
-      <c r="B151" s="11"/>
-      <c r="C151" s="11"/>
-      <c r="D151" s="11"/>
-      <c r="E151" s="11"/>
-      <c r="F151" s="11"/>
-      <c r="G151" s="11"/>
-      <c r="H151" s="12"/>
-      <c r="I151" s="11"/>
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="4"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
@@ -5635,15 +5795,15 @@
       <c r="AB151" s="1"/>
     </row>
     <row r="152" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="11"/>
-      <c r="B152" s="11"/>
-      <c r="C152" s="11"/>
-      <c r="D152" s="11"/>
-      <c r="E152" s="11"/>
-      <c r="F152" s="11"/>
-      <c r="G152" s="11"/>
-      <c r="H152" s="12"/>
-      <c r="I152" s="11"/>
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="4"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
@@ -5665,15 +5825,15 @@
       <c r="AB152" s="1"/>
     </row>
     <row r="153" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="11"/>
-      <c r="B153" s="11"/>
-      <c r="C153" s="11"/>
-      <c r="D153" s="11"/>
-      <c r="E153" s="11"/>
-      <c r="F153" s="11"/>
-      <c r="G153" s="11"/>
-      <c r="H153" s="12"/>
-      <c r="I153" s="11"/>
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="4"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
@@ -5695,15 +5855,15 @@
       <c r="AB153" s="1"/>
     </row>
     <row r="154" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="11"/>
-      <c r="B154" s="11"/>
-      <c r="C154" s="11"/>
-      <c r="D154" s="11"/>
-      <c r="E154" s="11"/>
-      <c r="F154" s="11"/>
-      <c r="G154" s="11"/>
-      <c r="H154" s="12"/>
-      <c r="I154" s="11"/>
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="4"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
@@ -5725,15 +5885,15 @@
       <c r="AB154" s="1"/>
     </row>
     <row r="155" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="11"/>
-      <c r="B155" s="11"/>
-      <c r="C155" s="11"/>
-      <c r="D155" s="11"/>
-      <c r="E155" s="11"/>
-      <c r="F155" s="11"/>
-      <c r="G155" s="11"/>
-      <c r="H155" s="12"/>
-      <c r="I155" s="11"/>
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="4"/>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
@@ -5755,15 +5915,15 @@
       <c r="AB155" s="1"/>
     </row>
     <row r="156" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="11"/>
-      <c r="B156" s="11"/>
-      <c r="C156" s="11"/>
-      <c r="D156" s="11"/>
-      <c r="E156" s="11"/>
-      <c r="F156" s="11"/>
-      <c r="G156" s="11"/>
-      <c r="H156" s="12"/>
-      <c r="I156" s="11"/>
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="4"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
@@ -5785,15 +5945,15 @@
       <c r="AB156" s="1"/>
     </row>
     <row r="157" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="11"/>
-      <c r="B157" s="11"/>
-      <c r="C157" s="11"/>
-      <c r="D157" s="11"/>
-      <c r="E157" s="11"/>
-      <c r="F157" s="11"/>
-      <c r="G157" s="11"/>
-      <c r="H157" s="12"/>
-      <c r="I157" s="11"/>
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="4"/>
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
@@ -5815,15 +5975,15 @@
       <c r="AB157" s="1"/>
     </row>
     <row r="158" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="11"/>
-      <c r="B158" s="11"/>
-      <c r="C158" s="11"/>
-      <c r="D158" s="11"/>
-      <c r="E158" s="11"/>
-      <c r="F158" s="11"/>
-      <c r="G158" s="11"/>
-      <c r="H158" s="12"/>
-      <c r="I158" s="11"/>
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="4"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
@@ -5845,15 +6005,15 @@
       <c r="AB158" s="1"/>
     </row>
     <row r="159" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="11"/>
-      <c r="B159" s="11"/>
-      <c r="C159" s="11"/>
-      <c r="D159" s="11"/>
-      <c r="E159" s="11"/>
-      <c r="F159" s="11"/>
-      <c r="G159" s="11"/>
-      <c r="H159" s="12"/>
-      <c r="I159" s="11"/>
+      <c r="A159" s="4"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="4"/>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
@@ -5875,15 +6035,15 @@
       <c r="AB159" s="1"/>
     </row>
     <row r="160" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="11"/>
-      <c r="B160" s="11"/>
-      <c r="C160" s="11"/>
-      <c r="D160" s="11"/>
-      <c r="E160" s="11"/>
-      <c r="F160" s="11"/>
-      <c r="G160" s="11"/>
-      <c r="H160" s="12"/>
-      <c r="I160" s="11"/>
+      <c r="A160" s="4"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="4"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
@@ -5905,15 +6065,15 @@
       <c r="AB160" s="1"/>
     </row>
     <row r="161" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="11"/>
-      <c r="B161" s="11"/>
-      <c r="C161" s="11"/>
-      <c r="D161" s="11"/>
-      <c r="E161" s="11"/>
-      <c r="F161" s="11"/>
-      <c r="G161" s="11"/>
-      <c r="H161" s="12"/>
-      <c r="I161" s="11"/>
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="4"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="4"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
@@ -5935,15 +6095,15 @@
       <c r="AB161" s="1"/>
     </row>
     <row r="162" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="11"/>
-      <c r="B162" s="11"/>
-      <c r="C162" s="11"/>
-      <c r="D162" s="11"/>
-      <c r="E162" s="11"/>
-      <c r="F162" s="11"/>
-      <c r="G162" s="11"/>
-      <c r="H162" s="12"/>
-      <c r="I162" s="11"/>
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="4"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
@@ -5965,15 +6125,15 @@
       <c r="AB162" s="1"/>
     </row>
     <row r="163" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="11"/>
-      <c r="B163" s="11"/>
-      <c r="C163" s="11"/>
-      <c r="D163" s="11"/>
-      <c r="E163" s="11"/>
-      <c r="F163" s="11"/>
-      <c r="G163" s="11"/>
-      <c r="H163" s="12"/>
-      <c r="I163" s="11"/>
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="4"/>
+      <c r="G163" s="4"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="4"/>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
@@ -5995,15 +6155,15 @@
       <c r="AB163" s="1"/>
     </row>
     <row r="164" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="11"/>
-      <c r="B164" s="11"/>
-      <c r="C164" s="11"/>
-      <c r="D164" s="11"/>
-      <c r="E164" s="11"/>
-      <c r="F164" s="11"/>
-      <c r="G164" s="11"/>
-      <c r="H164" s="12"/>
-      <c r="I164" s="11"/>
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="4"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
@@ -6025,15 +6185,15 @@
       <c r="AB164" s="1"/>
     </row>
     <row r="165" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="11"/>
-      <c r="B165" s="11"/>
-      <c r="C165" s="11"/>
-      <c r="D165" s="11"/>
-      <c r="E165" s="11"/>
-      <c r="F165" s="11"/>
-      <c r="G165" s="11"/>
-      <c r="H165" s="12"/>
-      <c r="I165" s="11"/>
+      <c r="A165" s="4"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="4"/>
+      <c r="F165" s="4"/>
+      <c r="G165" s="4"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="4"/>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
@@ -6055,15 +6215,15 @@
       <c r="AB165" s="1"/>
     </row>
     <row r="166" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="11"/>
-      <c r="B166" s="11"/>
-      <c r="C166" s="11"/>
-      <c r="D166" s="11"/>
-      <c r="E166" s="11"/>
-      <c r="F166" s="11"/>
-      <c r="G166" s="11"/>
-      <c r="H166" s="12"/>
-      <c r="I166" s="11"/>
+      <c r="A166" s="4"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="4"/>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
@@ -6085,15 +6245,15 @@
       <c r="AB166" s="1"/>
     </row>
     <row r="167" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="11"/>
-      <c r="B167" s="11"/>
-      <c r="C167" s="11"/>
-      <c r="D167" s="11"/>
-      <c r="E167" s="11"/>
-      <c r="F167" s="11"/>
-      <c r="G167" s="11"/>
-      <c r="H167" s="12"/>
-      <c r="I167" s="11"/>
+      <c r="A167" s="4"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="4"/>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
@@ -6115,15 +6275,15 @@
       <c r="AB167" s="1"/>
     </row>
     <row r="168" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="11"/>
-      <c r="B168" s="11"/>
-      <c r="C168" s="11"/>
-      <c r="D168" s="11"/>
-      <c r="E168" s="11"/>
-      <c r="F168" s="11"/>
-      <c r="G168" s="11"/>
-      <c r="H168" s="12"/>
-      <c r="I168" s="11"/>
+      <c r="A168" s="4"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="4"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4"/>
+      <c r="G168" s="4"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="4"/>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
@@ -6145,15 +6305,15 @@
       <c r="AB168" s="1"/>
     </row>
     <row r="169" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="11"/>
-      <c r="B169" s="11"/>
-      <c r="C169" s="11"/>
-      <c r="D169" s="11"/>
-      <c r="E169" s="11"/>
-      <c r="F169" s="11"/>
-      <c r="G169" s="11"/>
-      <c r="H169" s="12"/>
-      <c r="I169" s="11"/>
+      <c r="A169" s="4"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="4"/>
+      <c r="D169" s="4"/>
+      <c r="E169" s="4"/>
+      <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
+      <c r="H169" s="5"/>
+      <c r="I169" s="4"/>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
@@ -6175,15 +6335,15 @@
       <c r="AB169" s="1"/>
     </row>
     <row r="170" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="11"/>
-      <c r="B170" s="11"/>
-      <c r="C170" s="11"/>
-      <c r="D170" s="11"/>
-      <c r="E170" s="11"/>
-      <c r="F170" s="11"/>
-      <c r="G170" s="11"/>
-      <c r="H170" s="12"/>
-      <c r="I170" s="11"/>
+      <c r="A170" s="4"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="4"/>
+      <c r="G170" s="4"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="4"/>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
@@ -6205,15 +6365,15 @@
       <c r="AB170" s="1"/>
     </row>
     <row r="171" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="11"/>
-      <c r="B171" s="11"/>
-      <c r="C171" s="11"/>
-      <c r="D171" s="11"/>
-      <c r="E171" s="11"/>
-      <c r="F171" s="11"/>
-      <c r="G171" s="11"/>
-      <c r="H171" s="12"/>
-      <c r="I171" s="11"/>
+      <c r="A171" s="4"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="5"/>
+      <c r="I171" s="4"/>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
@@ -6235,15 +6395,15 @@
       <c r="AB171" s="1"/>
     </row>
     <row r="172" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="11"/>
-      <c r="B172" s="11"/>
-      <c r="C172" s="11"/>
-      <c r="D172" s="11"/>
-      <c r="E172" s="11"/>
-      <c r="F172" s="11"/>
-      <c r="G172" s="11"/>
-      <c r="H172" s="12"/>
-      <c r="I172" s="11"/>
+      <c r="A172" s="4"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="4"/>
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
@@ -6265,15 +6425,15 @@
       <c r="AB172" s="1"/>
     </row>
     <row r="173" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="11"/>
-      <c r="B173" s="11"/>
-      <c r="C173" s="11"/>
-      <c r="D173" s="11"/>
-      <c r="E173" s="11"/>
-      <c r="F173" s="11"/>
-      <c r="G173" s="11"/>
-      <c r="H173" s="12"/>
-      <c r="I173" s="11"/>
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+      <c r="H173" s="5"/>
+      <c r="I173" s="4"/>
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
@@ -6295,15 +6455,15 @@
       <c r="AB173" s="1"/>
     </row>
     <row r="174" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="11"/>
-      <c r="B174" s="11"/>
-      <c r="C174" s="11"/>
-      <c r="D174" s="11"/>
-      <c r="E174" s="11"/>
-      <c r="F174" s="11"/>
-      <c r="G174" s="11"/>
-      <c r="H174" s="12"/>
-      <c r="I174" s="11"/>
+      <c r="A174" s="4"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4"/>
+      <c r="F174" s="4"/>
+      <c r="G174" s="4"/>
+      <c r="H174" s="5"/>
+      <c r="I174" s="4"/>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
@@ -6325,15 +6485,15 @@
       <c r="AB174" s="1"/>
     </row>
     <row r="175" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="11"/>
-      <c r="B175" s="11"/>
-      <c r="C175" s="11"/>
-      <c r="D175" s="11"/>
-      <c r="E175" s="11"/>
-      <c r="F175" s="11"/>
-      <c r="G175" s="11"/>
-      <c r="H175" s="12"/>
-      <c r="I175" s="11"/>
+      <c r="A175" s="4"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="5"/>
+      <c r="I175" s="4"/>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
@@ -6355,15 +6515,15 @@
       <c r="AB175" s="1"/>
     </row>
     <row r="176" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="11"/>
-      <c r="B176" s="11"/>
-      <c r="C176" s="11"/>
-      <c r="D176" s="11"/>
-      <c r="E176" s="11"/>
-      <c r="F176" s="11"/>
-      <c r="G176" s="11"/>
-      <c r="H176" s="12"/>
-      <c r="I176" s="11"/>
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="5"/>
+      <c r="I176" s="4"/>
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
@@ -6385,15 +6545,15 @@
       <c r="AB176" s="1"/>
     </row>
     <row r="177" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="11"/>
-      <c r="B177" s="11"/>
-      <c r="C177" s="11"/>
-      <c r="D177" s="11"/>
-      <c r="E177" s="11"/>
-      <c r="F177" s="11"/>
-      <c r="G177" s="11"/>
-      <c r="H177" s="12"/>
-      <c r="I177" s="11"/>
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="5"/>
+      <c r="I177" s="4"/>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
@@ -6415,15 +6575,15 @@
       <c r="AB177" s="1"/>
     </row>
     <row r="178" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="11"/>
-      <c r="B178" s="11"/>
-      <c r="C178" s="11"/>
-      <c r="D178" s="11"/>
-      <c r="E178" s="11"/>
-      <c r="F178" s="11"/>
-      <c r="G178" s="11"/>
-      <c r="H178" s="12"/>
-      <c r="I178" s="11"/>
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="5"/>
+      <c r="I178" s="4"/>
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
@@ -6445,15 +6605,15 @@
       <c r="AB178" s="1"/>
     </row>
     <row r="179" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="11"/>
-      <c r="B179" s="11"/>
-      <c r="C179" s="11"/>
-      <c r="D179" s="11"/>
-      <c r="E179" s="11"/>
-      <c r="F179" s="11"/>
-      <c r="G179" s="11"/>
-      <c r="H179" s="12"/>
-      <c r="I179" s="11"/>
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
+      <c r="H179" s="5"/>
+      <c r="I179" s="4"/>
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
@@ -6475,15 +6635,15 @@
       <c r="AB179" s="1"/>
     </row>
     <row r="180" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="11"/>
-      <c r="B180" s="11"/>
-      <c r="C180" s="11"/>
-      <c r="D180" s="11"/>
-      <c r="E180" s="11"/>
-      <c r="F180" s="11"/>
-      <c r="G180" s="11"/>
-      <c r="H180" s="12"/>
-      <c r="I180" s="11"/>
+      <c r="A180" s="4"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="5"/>
+      <c r="I180" s="4"/>
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
@@ -6505,15 +6665,15 @@
       <c r="AB180" s="1"/>
     </row>
     <row r="181" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="11"/>
-      <c r="B181" s="11"/>
-      <c r="C181" s="11"/>
-      <c r="D181" s="11"/>
-      <c r="E181" s="11"/>
-      <c r="F181" s="11"/>
-      <c r="G181" s="11"/>
-      <c r="H181" s="12"/>
-      <c r="I181" s="11"/>
+      <c r="A181" s="4"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="5"/>
+      <c r="I181" s="4"/>
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
@@ -6535,15 +6695,15 @@
       <c r="AB181" s="1"/>
     </row>
     <row r="182" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="11"/>
-      <c r="B182" s="11"/>
-      <c r="C182" s="11"/>
-      <c r="D182" s="11"/>
-      <c r="E182" s="11"/>
-      <c r="F182" s="11"/>
-      <c r="G182" s="11"/>
-      <c r="H182" s="12"/>
-      <c r="I182" s="11"/>
+      <c r="A182" s="4"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
+      <c r="H182" s="5"/>
+      <c r="I182" s="4"/>
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
@@ -6565,15 +6725,15 @@
       <c r="AB182" s="1"/>
     </row>
     <row r="183" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="11"/>
-      <c r="B183" s="11"/>
-      <c r="C183" s="11"/>
-      <c r="D183" s="11"/>
-      <c r="E183" s="11"/>
-      <c r="F183" s="11"/>
-      <c r="G183" s="11"/>
-      <c r="H183" s="12"/>
-      <c r="I183" s="11"/>
+      <c r="A183" s="4"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="4"/>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
       <c r="L183" s="1"/>
@@ -6595,15 +6755,15 @@
       <c r="AB183" s="1"/>
     </row>
     <row r="184" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="11"/>
-      <c r="B184" s="11"/>
-      <c r="C184" s="11"/>
-      <c r="D184" s="11"/>
-      <c r="E184" s="11"/>
-      <c r="F184" s="11"/>
-      <c r="G184" s="11"/>
-      <c r="H184" s="12"/>
-      <c r="I184" s="11"/>
+      <c r="A184" s="4"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="4"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="4"/>
+      <c r="F184" s="4"/>
+      <c r="G184" s="4"/>
+      <c r="H184" s="5"/>
+      <c r="I184" s="4"/>
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
@@ -6625,15 +6785,15 @@
       <c r="AB184" s="1"/>
     </row>
     <row r="185" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="11"/>
-      <c r="B185" s="11"/>
-      <c r="C185" s="11"/>
-      <c r="D185" s="11"/>
-      <c r="E185" s="11"/>
-      <c r="F185" s="11"/>
-      <c r="G185" s="11"/>
-      <c r="H185" s="12"/>
-      <c r="I185" s="11"/>
+      <c r="A185" s="4"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
+      <c r="E185" s="4"/>
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
+      <c r="H185" s="5"/>
+      <c r="I185" s="4"/>
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
@@ -6655,15 +6815,15 @@
       <c r="AB185" s="1"/>
     </row>
     <row r="186" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="11"/>
-      <c r="B186" s="11"/>
-      <c r="C186" s="11"/>
-      <c r="D186" s="11"/>
-      <c r="E186" s="11"/>
-      <c r="F186" s="11"/>
-      <c r="G186" s="11"/>
-      <c r="H186" s="12"/>
-      <c r="I186" s="11"/>
+      <c r="A186" s="4"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="4"/>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4"/>
+      <c r="G186" s="4"/>
+      <c r="H186" s="5"/>
+      <c r="I186" s="4"/>
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
@@ -6685,15 +6845,15 @@
       <c r="AB186" s="1"/>
     </row>
     <row r="187" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="11"/>
-      <c r="B187" s="11"/>
-      <c r="C187" s="11"/>
-      <c r="D187" s="11"/>
-      <c r="E187" s="11"/>
-      <c r="F187" s="11"/>
-      <c r="G187" s="11"/>
-      <c r="H187" s="12"/>
-      <c r="I187" s="11"/>
+      <c r="A187" s="4"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
+      <c r="E187" s="4"/>
+      <c r="F187" s="4"/>
+      <c r="G187" s="4"/>
+      <c r="H187" s="5"/>
+      <c r="I187" s="4"/>
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
@@ -6715,15 +6875,15 @@
       <c r="AB187" s="1"/>
     </row>
     <row r="188" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="11"/>
-      <c r="B188" s="11"/>
-      <c r="C188" s="11"/>
-      <c r="D188" s="11"/>
-      <c r="E188" s="11"/>
-      <c r="F188" s="11"/>
-      <c r="G188" s="11"/>
-      <c r="H188" s="12"/>
-      <c r="I188" s="11"/>
+      <c r="A188" s="4"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4"/>
+      <c r="F188" s="4"/>
+      <c r="G188" s="4"/>
+      <c r="H188" s="5"/>
+      <c r="I188" s="4"/>
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
       <c r="L188" s="1"/>
@@ -6745,15 +6905,15 @@
       <c r="AB188" s="1"/>
     </row>
     <row r="189" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="11"/>
-      <c r="B189" s="11"/>
-      <c r="C189" s="11"/>
-      <c r="D189" s="11"/>
-      <c r="E189" s="11"/>
-      <c r="F189" s="11"/>
-      <c r="G189" s="11"/>
-      <c r="H189" s="12"/>
-      <c r="I189" s="11"/>
+      <c r="A189" s="4"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="4"/>
+      <c r="D189" s="4"/>
+      <c r="E189" s="4"/>
+      <c r="F189" s="4"/>
+      <c r="G189" s="4"/>
+      <c r="H189" s="5"/>
+      <c r="I189" s="4"/>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
@@ -6775,15 +6935,15 @@
       <c r="AB189" s="1"/>
     </row>
     <row r="190" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="11"/>
-      <c r="B190" s="11"/>
-      <c r="C190" s="11"/>
-      <c r="D190" s="11"/>
-      <c r="E190" s="11"/>
-      <c r="F190" s="11"/>
-      <c r="G190" s="11"/>
-      <c r="H190" s="12"/>
-      <c r="I190" s="11"/>
+      <c r="A190" s="4"/>
+      <c r="B190" s="4"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="4"/>
+      <c r="F190" s="4"/>
+      <c r="G190" s="4"/>
+      <c r="H190" s="5"/>
+      <c r="I190" s="4"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
@@ -6805,15 +6965,15 @@
       <c r="AB190" s="1"/>
     </row>
     <row r="191" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="11"/>
-      <c r="B191" s="11"/>
-      <c r="C191" s="11"/>
-      <c r="D191" s="11"/>
-      <c r="E191" s="11"/>
-      <c r="F191" s="11"/>
-      <c r="G191" s="11"/>
-      <c r="H191" s="12"/>
-      <c r="I191" s="11"/>
+      <c r="A191" s="4"/>
+      <c r="B191" s="4"/>
+      <c r="C191" s="4"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="4"/>
+      <c r="F191" s="4"/>
+      <c r="G191" s="4"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="4"/>
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
@@ -6835,15 +6995,15 @@
       <c r="AB191" s="1"/>
     </row>
     <row r="192" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="11"/>
-      <c r="B192" s="11"/>
-      <c r="C192" s="11"/>
-      <c r="D192" s="11"/>
-      <c r="E192" s="11"/>
-      <c r="F192" s="11"/>
-      <c r="G192" s="11"/>
-      <c r="H192" s="12"/>
-      <c r="I192" s="11"/>
+      <c r="A192" s="4"/>
+      <c r="B192" s="4"/>
+      <c r="C192" s="4"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="4"/>
+      <c r="F192" s="4"/>
+      <c r="G192" s="4"/>
+      <c r="H192" s="5"/>
+      <c r="I192" s="4"/>
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
@@ -6865,15 +7025,15 @@
       <c r="AB192" s="1"/>
     </row>
     <row r="193" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="11"/>
-      <c r="B193" s="11"/>
-      <c r="C193" s="11"/>
-      <c r="D193" s="11"/>
-      <c r="E193" s="11"/>
-      <c r="F193" s="11"/>
-      <c r="G193" s="11"/>
-      <c r="H193" s="12"/>
-      <c r="I193" s="11"/>
+      <c r="A193" s="4"/>
+      <c r="B193" s="4"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="4"/>
+      <c r="E193" s="4"/>
+      <c r="F193" s="4"/>
+      <c r="G193" s="4"/>
+      <c r="H193" s="5"/>
+      <c r="I193" s="4"/>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
@@ -6895,15 +7055,15 @@
       <c r="AB193" s="1"/>
     </row>
     <row r="194" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="11"/>
-      <c r="B194" s="11"/>
-      <c r="C194" s="11"/>
-      <c r="D194" s="11"/>
-      <c r="E194" s="11"/>
-      <c r="F194" s="11"/>
-      <c r="G194" s="11"/>
-      <c r="H194" s="12"/>
-      <c r="I194" s="11"/>
+      <c r="A194" s="4"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="4"/>
+      <c r="D194" s="4"/>
+      <c r="E194" s="4"/>
+      <c r="F194" s="4"/>
+      <c r="G194" s="4"/>
+      <c r="H194" s="5"/>
+      <c r="I194" s="4"/>
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
@@ -6925,15 +7085,15 @@
       <c r="AB194" s="1"/>
     </row>
     <row r="195" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="11"/>
-      <c r="B195" s="11"/>
-      <c r="C195" s="11"/>
-      <c r="D195" s="11"/>
-      <c r="E195" s="11"/>
-      <c r="F195" s="11"/>
-      <c r="G195" s="11"/>
-      <c r="H195" s="12"/>
-      <c r="I195" s="11"/>
+      <c r="A195" s="4"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="4"/>
+      <c r="F195" s="4"/>
+      <c r="G195" s="4"/>
+      <c r="H195" s="5"/>
+      <c r="I195" s="4"/>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
@@ -6955,15 +7115,15 @@
       <c r="AB195" s="1"/>
     </row>
     <row r="196" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="11"/>
-      <c r="B196" s="11"/>
-      <c r="C196" s="11"/>
-      <c r="D196" s="11"/>
-      <c r="E196" s="11"/>
-      <c r="F196" s="11"/>
-      <c r="G196" s="11"/>
-      <c r="H196" s="12"/>
-      <c r="I196" s="11"/>
+      <c r="A196" s="4"/>
+      <c r="B196" s="4"/>
+      <c r="C196" s="4"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="4"/>
+      <c r="F196" s="4"/>
+      <c r="G196" s="4"/>
+      <c r="H196" s="5"/>
+      <c r="I196" s="4"/>
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
@@ -6985,15 +7145,15 @@
       <c r="AB196" s="1"/>
     </row>
     <row r="197" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="11"/>
-      <c r="B197" s="11"/>
-      <c r="C197" s="11"/>
-      <c r="D197" s="11"/>
-      <c r="E197" s="11"/>
-      <c r="F197" s="11"/>
-      <c r="G197" s="11"/>
-      <c r="H197" s="12"/>
-      <c r="I197" s="11"/>
+      <c r="A197" s="4"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4"/>
+      <c r="F197" s="4"/>
+      <c r="G197" s="4"/>
+      <c r="H197" s="5"/>
+      <c r="I197" s="4"/>
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
@@ -7015,15 +7175,15 @@
       <c r="AB197" s="1"/>
     </row>
     <row r="198" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="11"/>
-      <c r="B198" s="11"/>
-      <c r="C198" s="11"/>
-      <c r="D198" s="11"/>
-      <c r="E198" s="11"/>
-      <c r="F198" s="11"/>
-      <c r="G198" s="11"/>
-      <c r="H198" s="12"/>
-      <c r="I198" s="11"/>
+      <c r="A198" s="4"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="4"/>
+      <c r="D198" s="4"/>
+      <c r="E198" s="4"/>
+      <c r="F198" s="4"/>
+      <c r="G198" s="4"/>
+      <c r="H198" s="5"/>
+      <c r="I198" s="4"/>
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
@@ -7045,15 +7205,15 @@
       <c r="AB198" s="1"/>
     </row>
     <row r="199" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="11"/>
-      <c r="B199" s="11"/>
-      <c r="C199" s="11"/>
-      <c r="D199" s="11"/>
-      <c r="E199" s="11"/>
-      <c r="F199" s="11"/>
-      <c r="G199" s="11"/>
-      <c r="H199" s="12"/>
-      <c r="I199" s="11"/>
+      <c r="A199" s="4"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="4"/>
+      <c r="D199" s="4"/>
+      <c r="E199" s="4"/>
+      <c r="F199" s="4"/>
+      <c r="G199" s="4"/>
+      <c r="H199" s="5"/>
+      <c r="I199" s="4"/>
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
@@ -7075,15 +7235,15 @@
       <c r="AB199" s="1"/>
     </row>
     <row r="200" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="11"/>
-      <c r="B200" s="11"/>
-      <c r="C200" s="11"/>
-      <c r="D200" s="11"/>
-      <c r="E200" s="11"/>
-      <c r="F200" s="11"/>
-      <c r="G200" s="11"/>
-      <c r="H200" s="12"/>
-      <c r="I200" s="11"/>
+      <c r="A200" s="4"/>
+      <c r="B200" s="4"/>
+      <c r="C200" s="4"/>
+      <c r="D200" s="4"/>
+      <c r="E200" s="4"/>
+      <c r="F200" s="4"/>
+      <c r="G200" s="4"/>
+      <c r="H200" s="5"/>
+      <c r="I200" s="4"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
       <c r="L200" s="1"/>
@@ -7105,15 +7265,15 @@
       <c r="AB200" s="1"/>
     </row>
     <row r="201" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="11"/>
-      <c r="B201" s="11"/>
-      <c r="C201" s="11"/>
-      <c r="D201" s="11"/>
-      <c r="E201" s="11"/>
-      <c r="F201" s="11"/>
-      <c r="G201" s="11"/>
-      <c r="H201" s="12"/>
-      <c r="I201" s="11"/>
+      <c r="A201" s="4"/>
+      <c r="B201" s="4"/>
+      <c r="C201" s="4"/>
+      <c r="D201" s="4"/>
+      <c r="E201" s="4"/>
+      <c r="F201" s="4"/>
+      <c r="G201" s="4"/>
+      <c r="H201" s="5"/>
+      <c r="I201" s="4"/>
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
       <c r="L201" s="1"/>
@@ -7135,15 +7295,15 @@
       <c r="AB201" s="1"/>
     </row>
     <row r="202" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="11"/>
-      <c r="B202" s="11"/>
-      <c r="C202" s="11"/>
-      <c r="D202" s="11"/>
-      <c r="E202" s="11"/>
-      <c r="F202" s="11"/>
-      <c r="G202" s="11"/>
-      <c r="H202" s="12"/>
-      <c r="I202" s="11"/>
+      <c r="A202" s="4"/>
+      <c r="B202" s="4"/>
+      <c r="C202" s="4"/>
+      <c r="D202" s="4"/>
+      <c r="E202" s="4"/>
+      <c r="F202" s="4"/>
+      <c r="G202" s="4"/>
+      <c r="H202" s="5"/>
+      <c r="I202" s="4"/>
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
@@ -7165,15 +7325,15 @@
       <c r="AB202" s="1"/>
     </row>
     <row r="203" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="11"/>
-      <c r="B203" s="11"/>
-      <c r="C203" s="11"/>
-      <c r="D203" s="11"/>
-      <c r="E203" s="11"/>
-      <c r="F203" s="11"/>
-      <c r="G203" s="11"/>
-      <c r="H203" s="12"/>
-      <c r="I203" s="11"/>
+      <c r="A203" s="4"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="4"/>
+      <c r="D203" s="4"/>
+      <c r="E203" s="4"/>
+      <c r="F203" s="4"/>
+      <c r="G203" s="4"/>
+      <c r="H203" s="5"/>
+      <c r="I203" s="4"/>
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
@@ -7195,15 +7355,15 @@
       <c r="AB203" s="1"/>
     </row>
     <row r="204" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="11"/>
-      <c r="B204" s="11"/>
-      <c r="C204" s="11"/>
-      <c r="D204" s="11"/>
-      <c r="E204" s="11"/>
-      <c r="F204" s="11"/>
-      <c r="G204" s="11"/>
-      <c r="H204" s="12"/>
-      <c r="I204" s="11"/>
+      <c r="A204" s="4"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="4"/>
+      <c r="D204" s="4"/>
+      <c r="E204" s="4"/>
+      <c r="F204" s="4"/>
+      <c r="G204" s="4"/>
+      <c r="H204" s="5"/>
+      <c r="I204" s="4"/>
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
       <c r="L204" s="1"/>
@@ -7225,15 +7385,15 @@
       <c r="AB204" s="1"/>
     </row>
     <row r="205" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="11"/>
-      <c r="B205" s="11"/>
-      <c r="C205" s="11"/>
-      <c r="D205" s="11"/>
-      <c r="E205" s="11"/>
-      <c r="F205" s="11"/>
-      <c r="G205" s="11"/>
-      <c r="H205" s="12"/>
-      <c r="I205" s="11"/>
+      <c r="A205" s="4"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="4"/>
+      <c r="F205" s="4"/>
+      <c r="G205" s="4"/>
+      <c r="H205" s="5"/>
+      <c r="I205" s="4"/>
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
       <c r="L205" s="1"/>
@@ -7255,15 +7415,15 @@
       <c r="AB205" s="1"/>
     </row>
     <row r="206" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="11"/>
-      <c r="B206" s="11"/>
-      <c r="C206" s="11"/>
-      <c r="D206" s="11"/>
-      <c r="E206" s="11"/>
-      <c r="F206" s="11"/>
-      <c r="G206" s="11"/>
-      <c r="H206" s="12"/>
-      <c r="I206" s="11"/>
+      <c r="A206" s="4"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="4"/>
+      <c r="D206" s="4"/>
+      <c r="E206" s="4"/>
+      <c r="F206" s="4"/>
+      <c r="G206" s="4"/>
+      <c r="H206" s="5"/>
+      <c r="I206" s="4"/>
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
@@ -7285,15 +7445,15 @@
       <c r="AB206" s="1"/>
     </row>
     <row r="207" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="11"/>
-      <c r="B207" s="11"/>
-      <c r="C207" s="11"/>
-      <c r="D207" s="11"/>
-      <c r="E207" s="11"/>
-      <c r="F207" s="11"/>
-      <c r="G207" s="11"/>
-      <c r="H207" s="12"/>
-      <c r="I207" s="11"/>
+      <c r="A207" s="4"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="4"/>
+      <c r="E207" s="4"/>
+      <c r="F207" s="4"/>
+      <c r="G207" s="4"/>
+      <c r="H207" s="5"/>
+      <c r="I207" s="4"/>
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
       <c r="L207" s="1"/>
@@ -7315,15 +7475,15 @@
       <c r="AB207" s="1"/>
     </row>
     <row r="208" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="11"/>
-      <c r="B208" s="11"/>
-      <c r="C208" s="11"/>
-      <c r="D208" s="11"/>
-      <c r="E208" s="11"/>
-      <c r="F208" s="11"/>
-      <c r="G208" s="11"/>
-      <c r="H208" s="12"/>
-      <c r="I208" s="11"/>
+      <c r="A208" s="4"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
+      <c r="H208" s="5"/>
+      <c r="I208" s="4"/>
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
       <c r="L208" s="1"/>
@@ -7345,15 +7505,15 @@
       <c r="AB208" s="1"/>
     </row>
     <row r="209" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="11"/>
-      <c r="B209" s="11"/>
-      <c r="C209" s="11"/>
-      <c r="D209" s="11"/>
-      <c r="E209" s="11"/>
-      <c r="F209" s="11"/>
-      <c r="G209" s="11"/>
-      <c r="H209" s="12"/>
-      <c r="I209" s="11"/>
+      <c r="A209" s="4"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="4"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="4"/>
+      <c r="F209" s="4"/>
+      <c r="G209" s="4"/>
+      <c r="H209" s="5"/>
+      <c r="I209" s="4"/>
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
@@ -7375,15 +7535,15 @@
       <c r="AB209" s="1"/>
     </row>
     <row r="210" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="11"/>
-      <c r="B210" s="11"/>
-      <c r="C210" s="11"/>
-      <c r="D210" s="11"/>
-      <c r="E210" s="11"/>
-      <c r="F210" s="11"/>
-      <c r="G210" s="11"/>
-      <c r="H210" s="12"/>
-      <c r="I210" s="11"/>
+      <c r="A210" s="4"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="4"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="4"/>
+      <c r="F210" s="4"/>
+      <c r="G210" s="4"/>
+      <c r="H210" s="5"/>
+      <c r="I210" s="4"/>
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
@@ -7405,15 +7565,15 @@
       <c r="AB210" s="1"/>
     </row>
     <row r="211" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="11"/>
-      <c r="B211" s="11"/>
-      <c r="C211" s="11"/>
-      <c r="D211" s="11"/>
-      <c r="E211" s="11"/>
-      <c r="F211" s="11"/>
-      <c r="G211" s="11"/>
-      <c r="H211" s="12"/>
-      <c r="I211" s="11"/>
+      <c r="A211" s="4"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="4"/>
+      <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
+      <c r="H211" s="5"/>
+      <c r="I211" s="4"/>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
@@ -7435,15 +7595,15 @@
       <c r="AB211" s="1"/>
     </row>
     <row r="212" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="11"/>
-      <c r="B212" s="11"/>
-      <c r="C212" s="11"/>
-      <c r="D212" s="11"/>
-      <c r="E212" s="11"/>
-      <c r="F212" s="11"/>
-      <c r="G212" s="11"/>
-      <c r="H212" s="12"/>
-      <c r="I212" s="11"/>
+      <c r="A212" s="4"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="4"/>
+      <c r="D212" s="4"/>
+      <c r="E212" s="4"/>
+      <c r="F212" s="4"/>
+      <c r="G212" s="4"/>
+      <c r="H212" s="5"/>
+      <c r="I212" s="4"/>
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
@@ -7465,15 +7625,15 @@
       <c r="AB212" s="1"/>
     </row>
     <row r="213" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="11"/>
-      <c r="B213" s="11"/>
-      <c r="C213" s="11"/>
-      <c r="D213" s="11"/>
-      <c r="E213" s="11"/>
-      <c r="F213" s="11"/>
-      <c r="G213" s="11"/>
-      <c r="H213" s="12"/>
-      <c r="I213" s="11"/>
+      <c r="A213" s="4"/>
+      <c r="B213" s="4"/>
+      <c r="C213" s="4"/>
+      <c r="D213" s="4"/>
+      <c r="E213" s="4"/>
+      <c r="F213" s="4"/>
+      <c r="G213" s="4"/>
+      <c r="H213" s="5"/>
+      <c r="I213" s="4"/>
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
       <c r="L213" s="1"/>
@@ -7495,15 +7655,15 @@
       <c r="AB213" s="1"/>
     </row>
     <row r="214" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="11"/>
-      <c r="B214" s="11"/>
-      <c r="C214" s="11"/>
-      <c r="D214" s="11"/>
-      <c r="E214" s="11"/>
-      <c r="F214" s="11"/>
-      <c r="G214" s="11"/>
-      <c r="H214" s="12"/>
-      <c r="I214" s="11"/>
+      <c r="A214" s="4"/>
+      <c r="B214" s="4"/>
+      <c r="C214" s="4"/>
+      <c r="D214" s="4"/>
+      <c r="E214" s="4"/>
+      <c r="F214" s="4"/>
+      <c r="G214" s="4"/>
+      <c r="H214" s="5"/>
+      <c r="I214" s="4"/>
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
       <c r="L214" s="1"/>
@@ -7525,15 +7685,15 @@
       <c r="AB214" s="1"/>
     </row>
     <row r="215" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="11"/>
-      <c r="B215" s="11"/>
-      <c r="C215" s="11"/>
-      <c r="D215" s="11"/>
-      <c r="E215" s="11"/>
-      <c r="F215" s="11"/>
-      <c r="G215" s="11"/>
-      <c r="H215" s="12"/>
-      <c r="I215" s="11"/>
+      <c r="A215" s="4"/>
+      <c r="B215" s="4"/>
+      <c r="C215" s="4"/>
+      <c r="D215" s="4"/>
+      <c r="E215" s="4"/>
+      <c r="F215" s="4"/>
+      <c r="G215" s="4"/>
+      <c r="H215" s="5"/>
+      <c r="I215" s="4"/>
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
       <c r="L215" s="1"/>
@@ -7555,15 +7715,15 @@
       <c r="AB215" s="1"/>
     </row>
     <row r="216" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="11"/>
-      <c r="B216" s="11"/>
-      <c r="C216" s="11"/>
-      <c r="D216" s="11"/>
-      <c r="E216" s="11"/>
-      <c r="F216" s="11"/>
-      <c r="G216" s="11"/>
-      <c r="H216" s="12"/>
-      <c r="I216" s="11"/>
+      <c r="A216" s="4"/>
+      <c r="B216" s="4"/>
+      <c r="C216" s="4"/>
+      <c r="D216" s="4"/>
+      <c r="E216" s="4"/>
+      <c r="F216" s="4"/>
+      <c r="G216" s="4"/>
+      <c r="H216" s="5"/>
+      <c r="I216" s="4"/>
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
       <c r="L216" s="1"/>
@@ -7585,15 +7745,15 @@
       <c r="AB216" s="1"/>
     </row>
     <row r="217" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="11"/>
-      <c r="B217" s="11"/>
-      <c r="C217" s="11"/>
-      <c r="D217" s="11"/>
-      <c r="E217" s="11"/>
-      <c r="F217" s="11"/>
-      <c r="G217" s="11"/>
-      <c r="H217" s="12"/>
-      <c r="I217" s="11"/>
+      <c r="A217" s="4"/>
+      <c r="B217" s="4"/>
+      <c r="C217" s="4"/>
+      <c r="D217" s="4"/>
+      <c r="E217" s="4"/>
+      <c r="F217" s="4"/>
+      <c r="G217" s="4"/>
+      <c r="H217" s="5"/>
+      <c r="I217" s="4"/>
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
@@ -7615,15 +7775,15 @@
       <c r="AB217" s="1"/>
     </row>
     <row r="218" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="13"/>
-      <c r="B218" s="13"/>
-      <c r="C218" s="13"/>
-      <c r="D218" s="13"/>
-      <c r="E218" s="13"/>
-      <c r="F218" s="13"/>
-      <c r="G218" s="13"/>
-      <c r="H218" s="14"/>
-      <c r="I218" s="13"/>
+      <c r="A218" s="6"/>
+      <c r="B218" s="6"/>
+      <c r="C218" s="6"/>
+      <c r="D218" s="6"/>
+      <c r="E218" s="6"/>
+      <c r="F218" s="6"/>
+      <c r="G218" s="6"/>
+      <c r="H218" s="7"/>
+      <c r="I218" s="6"/>
     </row>
     <row r="219" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="220" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7631,780 +7791,780 @@
     <row r="222" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="223" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="224" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I2"/>
